--- a/data/compiled_data.xlsx
+++ b/data/compiled_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/179ccb512d734f89/GMIT/PFDA/ProgrammingForDataAnalysis_Project/ProgrammingForDataAnalysis_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="8_{B101BB86-77B5-4ECE-B4A8-E35289C89F39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C7F05C2A-574A-46B7-9BCA-D93715A79B20}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="8_{B101BB86-77B5-4ECE-B4A8-E35289C89F39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B440D3BA-BA94-4526-8510-70385DC075AD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{892D9FFB-ADBF-45EB-A7A2-C7575B2C2AF3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{892D9FFB-ADBF-45EB-A7A2-C7575B2C2AF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Driving distance avg" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Scoring avg" sheetId="3" r:id="rId3"/>
     <sheet name="GIR" sheetId="4" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -156,6 +159,1420 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2">
+            <v>83.67</v>
+          </cell>
+          <cell r="B2">
+            <v>79.75</v>
+          </cell>
+          <cell r="C2">
+            <v>76.08</v>
+          </cell>
+          <cell r="D2">
+            <v>74.5</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>79.19</v>
+          </cell>
+          <cell r="B3">
+            <v>79.569999999999993</v>
+          </cell>
+          <cell r="C3">
+            <v>75.94</v>
+          </cell>
+          <cell r="D3">
+            <v>73.86</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>78.97</v>
+          </cell>
+          <cell r="B4">
+            <v>78.760000000000005</v>
+          </cell>
+          <cell r="C4">
+            <v>74</v>
+          </cell>
+          <cell r="D4">
+            <v>71.84</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>77.84</v>
+          </cell>
+          <cell r="B5">
+            <v>78.75</v>
+          </cell>
+          <cell r="C5">
+            <v>73.72</v>
+          </cell>
+          <cell r="D5">
+            <v>71.36</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>77.569999999999993</v>
+          </cell>
+          <cell r="B6">
+            <v>77.959999999999994</v>
+          </cell>
+          <cell r="C6">
+            <v>72.86</v>
+          </cell>
+          <cell r="D6">
+            <v>71.290000000000006</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>76.59</v>
+          </cell>
+          <cell r="B7">
+            <v>77.28</v>
+          </cell>
+          <cell r="C7">
+            <v>72.42</v>
+          </cell>
+          <cell r="D7">
+            <v>69.87</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>75.75</v>
+          </cell>
+          <cell r="B8">
+            <v>77.239999999999995</v>
+          </cell>
+          <cell r="C8">
+            <v>71.88</v>
+          </cell>
+          <cell r="D8">
+            <v>69.73</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>75.709999999999994</v>
+          </cell>
+          <cell r="B9">
+            <v>76.67</v>
+          </cell>
+          <cell r="C9">
+            <v>71.239999999999995</v>
+          </cell>
+          <cell r="D9">
+            <v>69.569999999999993</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>74.540000000000006</v>
+          </cell>
+          <cell r="B10">
+            <v>76.430000000000007</v>
+          </cell>
+          <cell r="C10">
+            <v>71.13</v>
+          </cell>
+          <cell r="D10">
+            <v>69.489999999999995</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>74.16</v>
+          </cell>
+          <cell r="B11">
+            <v>76.36</v>
+          </cell>
+          <cell r="C11">
+            <v>71.010000000000005</v>
+          </cell>
+          <cell r="D11">
+            <v>69.28</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>74.08</v>
+          </cell>
+          <cell r="B12">
+            <v>76.33</v>
+          </cell>
+          <cell r="C12">
+            <v>70.92</v>
+          </cell>
+          <cell r="D12">
+            <v>68.63</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>74.040000000000006</v>
+          </cell>
+          <cell r="B13">
+            <v>75.61</v>
+          </cell>
+          <cell r="C13">
+            <v>70.58</v>
+          </cell>
+          <cell r="D13">
+            <v>68.44</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>73.92</v>
+          </cell>
+          <cell r="B14">
+            <v>75.33</v>
+          </cell>
+          <cell r="C14">
+            <v>70.5</v>
+          </cell>
+          <cell r="D14">
+            <v>68.27</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>73.47</v>
+          </cell>
+          <cell r="B15">
+            <v>75.180000000000007</v>
+          </cell>
+          <cell r="C15">
+            <v>70.44</v>
+          </cell>
+          <cell r="D15">
+            <v>68.27</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>73.239999999999995</v>
+          </cell>
+          <cell r="B16">
+            <v>75.150000000000006</v>
+          </cell>
+          <cell r="C16">
+            <v>70.34</v>
+          </cell>
+          <cell r="D16">
+            <v>68.239999999999995</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>73.06</v>
+          </cell>
+          <cell r="B17">
+            <v>75.069999999999993</v>
+          </cell>
+          <cell r="C17">
+            <v>70.31</v>
+          </cell>
+          <cell r="D17">
+            <v>67.84</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>72.61</v>
+          </cell>
+          <cell r="B18">
+            <v>74.95</v>
+          </cell>
+          <cell r="C18">
+            <v>70.290000000000006</v>
+          </cell>
+          <cell r="D18">
+            <v>67.37</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>72.45</v>
+          </cell>
+          <cell r="B19">
+            <v>74.83</v>
+          </cell>
+          <cell r="C19">
+            <v>70.13</v>
+          </cell>
+          <cell r="D19">
+            <v>67.31</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>72.38</v>
+          </cell>
+          <cell r="B20">
+            <v>74.36</v>
+          </cell>
+          <cell r="C20">
+            <v>70.069999999999993</v>
+          </cell>
+          <cell r="D20">
+            <v>67.150000000000006</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>72.33</v>
+          </cell>
+          <cell r="B21">
+            <v>74.260000000000005</v>
+          </cell>
+          <cell r="C21">
+            <v>69.87</v>
+          </cell>
+          <cell r="D21">
+            <v>67.08</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>72.3</v>
+          </cell>
+          <cell r="B22">
+            <v>74.260000000000005</v>
+          </cell>
+          <cell r="C22">
+            <v>69.63</v>
+          </cell>
+          <cell r="D22">
+            <v>66.75</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>72.17</v>
+          </cell>
+          <cell r="B23">
+            <v>74.25</v>
+          </cell>
+          <cell r="C23">
+            <v>69.459999999999994</v>
+          </cell>
+          <cell r="D23">
+            <v>66.709999999999994</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>72.13</v>
+          </cell>
+          <cell r="B24">
+            <v>74.11</v>
+          </cell>
+          <cell r="C24">
+            <v>69.34</v>
+          </cell>
+          <cell r="D24">
+            <v>66.510000000000005</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>72.13</v>
+          </cell>
+          <cell r="B25">
+            <v>73.92</v>
+          </cell>
+          <cell r="C25">
+            <v>69.239999999999995</v>
+          </cell>
+          <cell r="D25">
+            <v>66.44</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>71.77</v>
+          </cell>
+          <cell r="B26">
+            <v>73.739999999999995</v>
+          </cell>
+          <cell r="C26">
+            <v>69.010000000000005</v>
+          </cell>
+          <cell r="D26">
+            <v>66.11</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>71.430000000000007</v>
+          </cell>
+          <cell r="B27">
+            <v>73.62</v>
+          </cell>
+          <cell r="C27">
+            <v>68.849999999999994</v>
+          </cell>
+          <cell r="D27">
+            <v>65.88</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>71.37</v>
+          </cell>
+          <cell r="B28">
+            <v>73.56</v>
+          </cell>
+          <cell r="C28">
+            <v>68.7</v>
+          </cell>
+          <cell r="D28">
+            <v>65.819999999999993</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>70.900000000000006</v>
+          </cell>
+          <cell r="B29">
+            <v>73.48</v>
+          </cell>
+          <cell r="C29">
+            <v>68.59</v>
+          </cell>
+          <cell r="D29">
+            <v>65.8</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>70.8</v>
+          </cell>
+          <cell r="B30">
+            <v>73.41</v>
+          </cell>
+          <cell r="C30">
+            <v>68.540000000000006</v>
+          </cell>
+          <cell r="D30">
+            <v>65.72</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>70.8</v>
+          </cell>
+          <cell r="B31">
+            <v>73.36</v>
+          </cell>
+          <cell r="C31">
+            <v>68.5</v>
+          </cell>
+          <cell r="D31">
+            <v>65.650000000000006</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>70.67</v>
+          </cell>
+          <cell r="B32">
+            <v>73.260000000000005</v>
+          </cell>
+          <cell r="C32">
+            <v>68.349999999999994</v>
+          </cell>
+          <cell r="D32">
+            <v>65.540000000000006</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>70.5</v>
+          </cell>
+          <cell r="B33">
+            <v>73.03</v>
+          </cell>
+          <cell r="C33">
+            <v>68.27</v>
+          </cell>
+          <cell r="D33">
+            <v>65.400000000000006</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>70.31</v>
+          </cell>
+          <cell r="B34">
+            <v>72.900000000000006</v>
+          </cell>
+          <cell r="C34">
+            <v>68.260000000000005</v>
+          </cell>
+          <cell r="D34">
+            <v>65.23</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>70.290000000000006</v>
+          </cell>
+          <cell r="B35">
+            <v>72.599999999999994</v>
+          </cell>
+          <cell r="C35">
+            <v>68.16</v>
+          </cell>
+          <cell r="D35">
+            <v>64.98</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>70.290000000000006</v>
+          </cell>
+          <cell r="B36">
+            <v>72.459999999999994</v>
+          </cell>
+          <cell r="C36">
+            <v>68.010000000000005</v>
+          </cell>
+          <cell r="D36">
+            <v>64.84</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>70.209999999999994</v>
+          </cell>
+          <cell r="B37">
+            <v>72.38</v>
+          </cell>
+          <cell r="C37">
+            <v>67.989999999999995</v>
+          </cell>
+          <cell r="D37">
+            <v>64.69</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>69.680000000000007</v>
+          </cell>
+          <cell r="B38">
+            <v>72.260000000000005</v>
+          </cell>
+          <cell r="C38">
+            <v>67.989999999999995</v>
+          </cell>
+          <cell r="D38">
+            <v>64.63</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>69.62</v>
+          </cell>
+          <cell r="B39">
+            <v>72.2</v>
+          </cell>
+          <cell r="C39">
+            <v>67.94</v>
+          </cell>
+          <cell r="D39">
+            <v>64.58</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>69.59</v>
+          </cell>
+          <cell r="B40">
+            <v>72.09</v>
+          </cell>
+          <cell r="C40">
+            <v>67.89</v>
+          </cell>
+          <cell r="D40">
+            <v>64.58</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>69.47</v>
+          </cell>
+          <cell r="B41">
+            <v>72.06</v>
+          </cell>
+          <cell r="C41">
+            <v>67.55</v>
+          </cell>
+          <cell r="D41">
+            <v>64.53</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>69.459999999999994</v>
+          </cell>
+          <cell r="B42">
+            <v>72.02</v>
+          </cell>
+          <cell r="C42">
+            <v>67.37</v>
+          </cell>
+          <cell r="D42">
+            <v>64.52</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>69.41</v>
+          </cell>
+          <cell r="B43">
+            <v>71.849999999999994</v>
+          </cell>
+          <cell r="C43">
+            <v>67.37</v>
+          </cell>
+          <cell r="D43">
+            <v>64.48</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>69.400000000000006</v>
+          </cell>
+          <cell r="B44">
+            <v>71.83</v>
+          </cell>
+          <cell r="C44">
+            <v>67.36</v>
+          </cell>
+          <cell r="D44">
+            <v>64.44</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>69.12</v>
+          </cell>
+          <cell r="B45">
+            <v>71.77</v>
+          </cell>
+          <cell r="C45">
+            <v>67.28</v>
+          </cell>
+          <cell r="D45">
+            <v>64.41</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>69.03</v>
+          </cell>
+          <cell r="B46">
+            <v>71.61</v>
+          </cell>
+          <cell r="C46">
+            <v>67.23</v>
+          </cell>
+          <cell r="D46">
+            <v>64.36</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>68.95</v>
+          </cell>
+          <cell r="B47">
+            <v>71.61</v>
+          </cell>
+          <cell r="C47">
+            <v>67.22</v>
+          </cell>
+          <cell r="D47">
+            <v>64.239999999999995</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>68.930000000000007</v>
+          </cell>
+          <cell r="B48">
+            <v>71.569999999999993</v>
+          </cell>
+          <cell r="C48">
+            <v>67.14</v>
+          </cell>
+          <cell r="D48">
+            <v>64.14</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>68.83</v>
+          </cell>
+          <cell r="B49">
+            <v>71.569999999999993</v>
+          </cell>
+          <cell r="C49">
+            <v>66.95</v>
+          </cell>
+          <cell r="D49">
+            <v>63.86</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>68.66</v>
+          </cell>
+          <cell r="B50">
+            <v>71.48</v>
+          </cell>
+          <cell r="C50">
+            <v>66.89</v>
+          </cell>
+          <cell r="D50">
+            <v>63.74</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>68.599999999999994</v>
+          </cell>
+          <cell r="B51">
+            <v>71.459999999999994</v>
+          </cell>
+          <cell r="C51">
+            <v>66.89</v>
+          </cell>
+          <cell r="D51">
+            <v>63.74</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>68.349999999999994</v>
+          </cell>
+          <cell r="B52">
+            <v>71.44</v>
+          </cell>
+          <cell r="C52">
+            <v>66.87</v>
+          </cell>
+          <cell r="D52">
+            <v>63.69</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>68.3</v>
+          </cell>
+          <cell r="B53">
+            <v>71.400000000000006</v>
+          </cell>
+          <cell r="C53">
+            <v>66.84</v>
+          </cell>
+          <cell r="D53">
+            <v>63.6</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>68.23</v>
+          </cell>
+          <cell r="B54">
+            <v>71.28</v>
+          </cell>
+          <cell r="C54">
+            <v>66.709999999999994</v>
+          </cell>
+          <cell r="D54">
+            <v>63.28</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>68.14</v>
+          </cell>
+          <cell r="B55">
+            <v>71.22</v>
+          </cell>
+          <cell r="C55">
+            <v>66.48</v>
+          </cell>
+          <cell r="D55">
+            <v>63.24</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>68.11</v>
+          </cell>
+          <cell r="B56">
+            <v>71.09</v>
+          </cell>
+          <cell r="C56">
+            <v>66.47</v>
+          </cell>
+          <cell r="D56">
+            <v>63.18</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>68.099999999999994</v>
+          </cell>
+          <cell r="B57">
+            <v>71.05</v>
+          </cell>
+          <cell r="C57">
+            <v>66.459999999999994</v>
+          </cell>
+          <cell r="D57">
+            <v>63.11</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>68.06</v>
+          </cell>
+          <cell r="B58">
+            <v>71</v>
+          </cell>
+          <cell r="C58">
+            <v>66.33</v>
+          </cell>
+          <cell r="D58">
+            <v>62.95</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>67.930000000000007</v>
+          </cell>
+          <cell r="B59">
+            <v>70.94</v>
+          </cell>
+          <cell r="C59">
+            <v>66.28</v>
+          </cell>
+          <cell r="D59">
+            <v>62.84</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>67.91</v>
+          </cell>
+          <cell r="B60">
+            <v>70.92</v>
+          </cell>
+          <cell r="C60">
+            <v>66.02</v>
+          </cell>
+          <cell r="D60">
+            <v>62.79</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>67.849999999999994</v>
+          </cell>
+          <cell r="B61">
+            <v>70.900000000000006</v>
+          </cell>
+          <cell r="C61">
+            <v>65.989999999999995</v>
+          </cell>
+          <cell r="D61">
+            <v>62.76</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>67.7</v>
+          </cell>
+          <cell r="B62">
+            <v>70.88</v>
+          </cell>
+          <cell r="C62">
+            <v>65.930000000000007</v>
+          </cell>
+          <cell r="D62">
+            <v>62.75</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>67.62</v>
+          </cell>
+          <cell r="B63">
+            <v>70.72</v>
+          </cell>
+          <cell r="C63">
+            <v>65.87</v>
+          </cell>
+          <cell r="D63">
+            <v>62.74</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>67.61</v>
+          </cell>
+          <cell r="B64">
+            <v>70.66</v>
+          </cell>
+          <cell r="C64">
+            <v>65.69</v>
+          </cell>
+          <cell r="D64">
+            <v>62.68</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>67.569999999999993</v>
+          </cell>
+          <cell r="B65">
+            <v>70.59</v>
+          </cell>
+          <cell r="C65">
+            <v>65.64</v>
+          </cell>
+          <cell r="D65">
+            <v>62.62</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>67.5</v>
+          </cell>
+          <cell r="B66">
+            <v>70.45</v>
+          </cell>
+          <cell r="C66">
+            <v>65.510000000000005</v>
+          </cell>
+          <cell r="D66">
+            <v>62.61</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>67.38</v>
+          </cell>
+          <cell r="B67">
+            <v>70.41</v>
+          </cell>
+          <cell r="C67">
+            <v>65.45</v>
+          </cell>
+          <cell r="D67">
+            <v>62.55</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>67.290000000000006</v>
+          </cell>
+          <cell r="B68">
+            <v>70.36</v>
+          </cell>
+          <cell r="C68">
+            <v>65.45</v>
+          </cell>
+          <cell r="D68">
+            <v>62.52</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>67.290000000000006</v>
+          </cell>
+          <cell r="B69">
+            <v>70.290000000000006</v>
+          </cell>
+          <cell r="C69">
+            <v>65.38</v>
+          </cell>
+          <cell r="D69">
+            <v>62.52</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>67.260000000000005</v>
+          </cell>
+          <cell r="B70">
+            <v>70.260000000000005</v>
+          </cell>
+          <cell r="C70">
+            <v>65.239999999999995</v>
+          </cell>
+          <cell r="D70">
+            <v>62.47</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>67.260000000000005</v>
+          </cell>
+          <cell r="B71">
+            <v>70.13</v>
+          </cell>
+          <cell r="C71">
+            <v>65.23</v>
+          </cell>
+          <cell r="D71">
+            <v>62.27</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>67.23</v>
+          </cell>
+          <cell r="B72">
+            <v>70.09</v>
+          </cell>
+          <cell r="C72">
+            <v>65.23</v>
+          </cell>
+          <cell r="D72">
+            <v>62.2</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>67.069999999999993</v>
+          </cell>
+          <cell r="B73">
+            <v>70.08</v>
+          </cell>
+          <cell r="C73">
+            <v>65.17</v>
+          </cell>
+          <cell r="D73">
+            <v>62.19</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>67.06</v>
+          </cell>
+          <cell r="B74">
+            <v>70.069999999999993</v>
+          </cell>
+          <cell r="C74">
+            <v>65.12</v>
+          </cell>
+          <cell r="D74">
+            <v>62.05</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>66.95</v>
+          </cell>
+          <cell r="B75">
+            <v>70.06</v>
+          </cell>
+          <cell r="C75">
+            <v>65.069999999999993</v>
+          </cell>
+          <cell r="D75">
+            <v>62.02</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>66.92</v>
+          </cell>
+          <cell r="B76">
+            <v>70.010000000000005</v>
+          </cell>
+          <cell r="C76">
+            <v>64.91</v>
+          </cell>
+          <cell r="D76">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>66.84</v>
+          </cell>
+          <cell r="B77">
+            <v>69.97</v>
+          </cell>
+          <cell r="C77">
+            <v>64.790000000000006</v>
+          </cell>
+          <cell r="D77">
+            <v>61.94</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>66.83</v>
+          </cell>
+          <cell r="B78">
+            <v>69.87</v>
+          </cell>
+          <cell r="C78">
+            <v>64.75</v>
+          </cell>
+          <cell r="D78">
+            <v>61.75</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>66.83</v>
+          </cell>
+          <cell r="B79">
+            <v>69.83</v>
+          </cell>
+          <cell r="C79">
+            <v>64.739999999999995</v>
+          </cell>
+          <cell r="D79">
+            <v>61.73</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>66.75</v>
+          </cell>
+          <cell r="B80">
+            <v>69.77</v>
+          </cell>
+          <cell r="C80">
+            <v>64.739999999999995</v>
+          </cell>
+          <cell r="D80">
+            <v>61.69</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>66.709999999999994</v>
+          </cell>
+          <cell r="B81">
+            <v>69.75</v>
+          </cell>
+          <cell r="C81">
+            <v>64.58</v>
+          </cell>
+          <cell r="D81">
+            <v>61.6</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>66.58</v>
+          </cell>
+          <cell r="B82">
+            <v>69.709999999999994</v>
+          </cell>
+          <cell r="C82">
+            <v>64.52</v>
+          </cell>
+          <cell r="D82">
+            <v>61.43</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>66.55</v>
+          </cell>
+          <cell r="B83">
+            <v>69.66</v>
+          </cell>
+          <cell r="C83">
+            <v>64.31</v>
+          </cell>
+          <cell r="D83">
+            <v>61.33</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>66.52</v>
+          </cell>
+          <cell r="B84">
+            <v>69.63</v>
+          </cell>
+          <cell r="C84">
+            <v>64.28</v>
+          </cell>
+          <cell r="D84">
+            <v>61.3</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>66.459999999999994</v>
+          </cell>
+          <cell r="B85">
+            <v>69.61</v>
+          </cell>
+          <cell r="C85">
+            <v>64.27</v>
+          </cell>
+          <cell r="D85">
+            <v>61.24</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>66.42</v>
+          </cell>
+          <cell r="B86">
+            <v>69.56</v>
+          </cell>
+          <cell r="C86">
+            <v>64.2</v>
+          </cell>
+          <cell r="D86">
+            <v>61.22</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>66.319999999999993</v>
+          </cell>
+          <cell r="B87">
+            <v>69.540000000000006</v>
+          </cell>
+          <cell r="C87">
+            <v>64.19</v>
+          </cell>
+          <cell r="D87">
+            <v>61.17</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>66.31</v>
+          </cell>
+          <cell r="B88">
+            <v>69.459999999999994</v>
+          </cell>
+          <cell r="C88">
+            <v>64.19</v>
+          </cell>
+          <cell r="D88">
+            <v>60.95</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>66.239999999999995</v>
+          </cell>
+          <cell r="B89">
+            <v>69.42</v>
+          </cell>
+          <cell r="C89">
+            <v>64.17</v>
+          </cell>
+          <cell r="D89">
+            <v>60.8</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>66.22</v>
+          </cell>
+          <cell r="B90">
+            <v>69.41</v>
+          </cell>
+          <cell r="C90">
+            <v>64.12</v>
+          </cell>
+          <cell r="D90">
+            <v>60.76</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>66.06</v>
+          </cell>
+          <cell r="B91">
+            <v>69.260000000000005</v>
+          </cell>
+          <cell r="C91">
+            <v>64.069999999999993</v>
+          </cell>
+          <cell r="D91">
+            <v>60.74</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>66.03</v>
+          </cell>
+          <cell r="B92">
+            <v>69.25</v>
+          </cell>
+          <cell r="C92">
+            <v>64.040000000000006</v>
+          </cell>
+          <cell r="D92">
+            <v>60.65</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
+            <v>65.88</v>
+          </cell>
+          <cell r="B93">
+            <v>69.23</v>
+          </cell>
+          <cell r="C93">
+            <v>63.98</v>
+          </cell>
+          <cell r="D93">
+            <v>60.63</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>65.709999999999994</v>
+          </cell>
+          <cell r="B94">
+            <v>69.209999999999994</v>
+          </cell>
+          <cell r="C94">
+            <v>63.98</v>
+          </cell>
+          <cell r="D94">
+            <v>60.62</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>65.56</v>
+          </cell>
+          <cell r="B95">
+            <v>69.19</v>
+          </cell>
+          <cell r="C95">
+            <v>63.85</v>
+          </cell>
+          <cell r="D95">
+            <v>60.58</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>65.489999999999995</v>
+          </cell>
+          <cell r="B96">
+            <v>69.010000000000005</v>
+          </cell>
+          <cell r="C96">
+            <v>63.75</v>
+          </cell>
+          <cell r="D96">
+            <v>60.42</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
+            <v>65.3</v>
+          </cell>
+          <cell r="B97">
+            <v>68.88</v>
+          </cell>
+          <cell r="C97">
+            <v>63.72</v>
+          </cell>
+          <cell r="D97">
+            <v>60.34</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>65</v>
+          </cell>
+          <cell r="B98">
+            <v>68.849999999999994</v>
+          </cell>
+          <cell r="C98">
+            <v>63.69</v>
+          </cell>
+          <cell r="D98">
+            <v>60.34</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>64.989999999999995</v>
+          </cell>
+          <cell r="B99">
+            <v>68.78</v>
+          </cell>
+          <cell r="C99">
+            <v>63.47</v>
+          </cell>
+          <cell r="D99">
+            <v>60.31</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>64.97</v>
+          </cell>
+          <cell r="B100">
+            <v>68.680000000000007</v>
+          </cell>
+          <cell r="C100">
+            <v>63.4</v>
+          </cell>
+          <cell r="D100">
+            <v>60.26</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101">
+            <v>64.97</v>
+          </cell>
+          <cell r="B101">
+            <v>68.67</v>
+          </cell>
+          <cell r="C101">
+            <v>63.4</v>
+          </cell>
+          <cell r="D101">
+            <v>60.2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -457,8 +1874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4919A4-0535-4563-A11A-3D2F264E0BA1}">
   <dimension ref="A1:K202"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H107"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2944,8 +4361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515CA965-DA06-42B1-A304-05052F087996}">
   <dimension ref="A1:N202"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3001,23 +4418,23 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7">
-        <f>AVERAGE(B8:B133)</f>
-        <v>69.546200000000013</v>
+      <c r="B3" s="7" t="e">
+        <f>AVERAGE(B108:B133)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="C3" s="7">
         <v>0</v>
       </c>
       <c r="D3" s="7">
-        <f>AVERAGE(D8:D107)</f>
+        <f>AVERAGE([1]Sheet1!B2:B101)</f>
         <v>72.100600000000014</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="7" t="e">
         <f>SUM(D3-B3)</f>
-        <v>2.5544000000000011</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F3" s="7">
-        <f>AVERAGE(F8:F107)</f>
+        <f>AVERAGE([1]Sheet1!C2:C101)</f>
         <v>67.242399999999961</v>
       </c>
       <c r="G3" s="7">
@@ -3025,20 +4442,20 @@
         <v>-4.8582000000000534</v>
       </c>
       <c r="H3" s="7">
-        <f>AVERAGE(H8:H107)</f>
+        <f>AVERAGE([1]Sheet1!D2:D101)</f>
         <v>64.333400000000012</v>
       </c>
       <c r="I3" s="4">
         <f>SUM(H3-F3)</f>
         <v>-2.9089999999999492</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="4" t="e">
         <f>AVERAGE(E3,G3,I3)</f>
-        <v>-1.7376000000000005</v>
-      </c>
-      <c r="K3" s="4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K3" s="4" t="e">
         <f>SUM(H3+J3)</f>
-        <v>62.595800000000011</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -3046,22 +4463,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <f>MAX(B8:B107)</f>
+        <f>MAX([1]Sheet1!A2:A101)</f>
         <v>83.67</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7">
-        <f t="shared" ref="D4:H4" si="0">MAX(D8:D107)</f>
+        <f>MAX([1]Sheet1!B2:B101)</f>
         <v>79.75</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7">
-        <f t="shared" si="0"/>
+        <f>MAX([1]Sheet1!C2:C101)</f>
         <v>76.08</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7">
-        <f t="shared" si="0"/>
+        <f>MAX([1]Sheet1!D2:D101)</f>
         <v>74.5</v>
       </c>
     </row>
@@ -3070,22 +4487,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <f>MIN(B8:B107)</f>
+        <f>MIN([1]Sheet1!A2:A101)</f>
         <v>64.97</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7">
-        <f t="shared" ref="D5:H5" si="1">MIN(D8:D107)</f>
+        <f>MIN([1]Sheet1!B2:B101)</f>
         <v>68.67</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7">
-        <f t="shared" si="1"/>
+        <f>MIN([1]Sheet1!C2:C101)</f>
         <v>63.4</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7">
-        <f t="shared" si="1"/>
+        <f>MIN([1]Sheet1!D2:D101)</f>
         <v>60.2</v>
       </c>
     </row>
@@ -3094,22 +4511,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="7">
-        <f>_xlfn.STDEV.S(B8:B107)</f>
+        <f>_xlfn.STDEV.S([1]Sheet1!A2:A101)</f>
         <v>3.6017009954472994</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7">
-        <f t="shared" ref="D6:H6" si="2">_xlfn.STDEV.S(D8:D107)</f>
+        <f>_xlfn.STDEV.S([1]Sheet1!B2:B101)</f>
         <v>2.7043230710710713</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7">
-        <f t="shared" si="2"/>
+        <f>_xlfn.STDEV.S([1]Sheet1!C2:C101)</f>
         <v>2.858855149824274</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7">
-        <f t="shared" si="2"/>
+        <f>_xlfn.STDEV.S([1]Sheet1!D2:D101)</f>
         <v>3.2042803506648045</v>
       </c>
       <c r="K6" s="4">
@@ -3128,21 +4545,6 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="1">
-        <v>83.67</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1">
-        <v>79.75</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="1">
-        <v>76.08</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1">
-        <v>74.5</v>
-      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="2"/>
       <c r="K8" s="1"/>
@@ -3151,21 +4553,6 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="1">
-        <v>79.19</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1">
-        <v>79.569999999999993</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="1">
-        <v>75.94</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1">
-        <v>73.86</v>
-      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="2"/>
       <c r="K9" s="1"/>
@@ -3174,21 +4561,6 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="1">
-        <v>78.97</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1">
-        <v>78.760000000000005</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="1">
-        <v>74</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="1">
-        <v>71.84</v>
-      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="2"/>
       <c r="K10" s="1"/>
@@ -3197,21 +4569,6 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="1">
-        <v>77.84</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1">
-        <v>78.75</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1">
-        <v>73.72</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1">
-        <v>71.36</v>
-      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="2"/>
       <c r="K11" s="1"/>
@@ -3220,21 +4577,6 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="1">
-        <v>77.569999999999993</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1">
-        <v>77.959999999999994</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1">
-        <v>72.86</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1">
-        <v>71.290000000000006</v>
-      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="2"/>
       <c r="K12" s="1"/>
@@ -3243,21 +4585,6 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="1">
-        <v>76.59</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1">
-        <v>77.28</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="1">
-        <v>72.42</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1">
-        <v>69.87</v>
-      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="2"/>
       <c r="K13" s="1"/>
@@ -3266,21 +4593,6 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="1">
-        <v>75.75</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <v>77.239999999999995</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="1">
-        <v>71.88</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1">
-        <v>69.73</v>
-      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="2"/>
       <c r="K14" s="1"/>
@@ -3289,21 +4601,6 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="1">
-        <v>75.709999999999994</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1">
-        <v>76.67</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1">
-        <v>71.239999999999995</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1">
-        <v>69.569999999999993</v>
-      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="2"/>
       <c r="K15" s="1"/>
@@ -3312,21 +4609,6 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="1">
-        <v>74.540000000000006</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1">
-        <v>76.430000000000007</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="1">
-        <v>71.13</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1">
-        <v>69.489999999999995</v>
-      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="2"/>
       <c r="K16" s="1"/>
@@ -3335,21 +4617,6 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="1">
-        <v>74.16</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1">
-        <v>76.36</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1">
-        <v>71.010000000000005</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1">
-        <v>69.28</v>
-      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="2"/>
       <c r="K17" s="1"/>
@@ -3358,21 +4625,6 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="1">
-        <v>74.08</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1">
-        <v>76.33</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1">
-        <v>70.92</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1">
-        <v>68.63</v>
-      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="2"/>
       <c r="K18" s="1"/>
@@ -3381,21 +4633,6 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="1">
-        <v>74.040000000000006</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1">
-        <v>75.61</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1">
-        <v>70.58</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1">
-        <v>68.44</v>
-      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="2"/>
       <c r="K19" s="1"/>
@@ -3404,21 +4641,6 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="1">
-        <v>73.92</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1">
-        <v>75.33</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="1">
-        <v>70.5</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1">
-        <v>68.27</v>
-      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="2"/>
       <c r="K20" s="1"/>
@@ -3427,21 +4649,6 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="1">
-        <v>73.47</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1">
-        <v>75.180000000000007</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1">
-        <v>70.44</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1">
-        <v>68.27</v>
-      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="2"/>
       <c r="K21" s="1"/>
@@ -3450,21 +4657,6 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="1">
-        <v>73.239999999999995</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1">
-        <v>75.150000000000006</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1">
-        <v>70.34</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1">
-        <v>68.239999999999995</v>
-      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="2"/>
       <c r="K22" s="1"/>
@@ -3473,21 +4665,6 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="1">
-        <v>73.06</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1">
-        <v>75.069999999999993</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1">
-        <v>70.31</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1">
-        <v>67.84</v>
-      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="2"/>
       <c r="K23" s="1"/>
@@ -3496,21 +4673,6 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="1">
-        <v>72.61</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1">
-        <v>74.95</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="1">
-        <v>70.290000000000006</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1">
-        <v>67.37</v>
-      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="2"/>
       <c r="K24" s="1"/>
@@ -3519,21 +4681,6 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="1">
-        <v>72.45</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1">
-        <v>74.83</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1">
-        <v>70.13</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1">
-        <v>67.31</v>
-      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="2"/>
       <c r="K25" s="1"/>
@@ -3542,21 +4689,6 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="1">
-        <v>72.38</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1">
-        <v>74.36</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="1">
-        <v>70.069999999999993</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1">
-        <v>67.150000000000006</v>
-      </c>
       <c r="I26" s="1"/>
       <c r="J26" s="2"/>
       <c r="K26" s="1"/>
@@ -3565,21 +4697,6 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="1">
-        <v>72.33</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1">
-        <v>74.260000000000005</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="1">
-        <v>69.87</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1">
-        <v>67.08</v>
-      </c>
       <c r="I27" s="1"/>
       <c r="J27" s="2"/>
       <c r="K27" s="1"/>
@@ -3588,21 +4705,6 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="1">
-        <v>72.3</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1">
-        <v>74.260000000000005</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1">
-        <v>69.63</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1">
-        <v>66.75</v>
-      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="2"/>
       <c r="K28" s="1"/>
@@ -3611,21 +4713,6 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="1">
-        <v>72.17</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1">
-        <v>74.25</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1">
-        <v>69.459999999999994</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1">
-        <v>66.709999999999994</v>
-      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="2"/>
       <c r="K29" s="1"/>
@@ -3634,21 +4721,6 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="1">
-        <v>72.13</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1">
-        <v>74.11</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="1">
-        <v>69.34</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1">
-        <v>66.510000000000005</v>
-      </c>
       <c r="I30" s="1"/>
       <c r="J30" s="2"/>
       <c r="K30" s="1"/>
@@ -3657,21 +4729,6 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="1">
-        <v>72.13</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1">
-        <v>73.92</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="1">
-        <v>69.239999999999995</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1">
-        <v>66.44</v>
-      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="2"/>
       <c r="K31" s="1"/>
@@ -3680,21 +4737,6 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="1">
-        <v>71.77</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1">
-        <v>73.739999999999995</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="1">
-        <v>69.010000000000005</v>
-      </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1">
-        <v>66.11</v>
-      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="2"/>
       <c r="K32" s="1"/>
@@ -3703,21 +4745,6 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="1">
-        <v>71.430000000000007</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1">
-        <v>73.62</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1">
-        <v>68.849999999999994</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1">
-        <v>65.88</v>
-      </c>
       <c r="I33" s="1"/>
       <c r="J33" s="2"/>
       <c r="K33" s="1"/>
@@ -3726,21 +4753,6 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="1">
-        <v>71.37</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1">
-        <v>73.56</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1">
-        <v>68.7</v>
-      </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1">
-        <v>65.819999999999993</v>
-      </c>
       <c r="I34" s="1"/>
       <c r="J34" s="2"/>
       <c r="K34" s="1"/>
@@ -3749,21 +4761,6 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="1">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1">
-        <v>73.48</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1">
-        <v>68.59</v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1">
-        <v>65.8</v>
-      </c>
       <c r="I35" s="1"/>
       <c r="J35" s="2"/>
       <c r="K35" s="1"/>
@@ -3772,21 +4769,6 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="1">
-        <v>70.8</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1">
-        <v>73.41</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1">
-        <v>68.540000000000006</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1">
-        <v>65.72</v>
-      </c>
       <c r="I36" s="1"/>
       <c r="J36" s="2"/>
       <c r="K36" s="1"/>
@@ -3795,21 +4777,6 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="1">
-        <v>70.8</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1">
-        <v>73.36</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1">
-        <v>68.5</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1">
-        <v>65.650000000000006</v>
-      </c>
       <c r="I37" s="1"/>
       <c r="J37" s="2"/>
       <c r="K37" s="1"/>
@@ -3818,21 +4785,6 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="1">
-        <v>70.67</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1">
-        <v>73.260000000000005</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="1">
-        <v>68.349999999999994</v>
-      </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1">
-        <v>65.540000000000006</v>
-      </c>
       <c r="I38" s="1"/>
       <c r="J38" s="2"/>
       <c r="K38" s="1"/>
@@ -3841,21 +4793,6 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="1">
-        <v>70.5</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1">
-        <v>73.03</v>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1">
-        <v>68.27</v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1">
-        <v>65.400000000000006</v>
-      </c>
       <c r="I39" s="1"/>
       <c r="J39" s="2"/>
       <c r="K39" s="1"/>
@@ -3864,21 +4801,6 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="1">
-        <v>70.31</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1">
-        <v>68.260000000000005</v>
-      </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1">
-        <v>65.23</v>
-      </c>
       <c r="I40" s="1"/>
       <c r="J40" s="2"/>
       <c r="K40" s="1"/>
@@ -3887,21 +4809,6 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="1">
-        <v>70.290000000000006</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1">
-        <v>68.16</v>
-      </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1">
-        <v>64.98</v>
-      </c>
       <c r="I41" s="1"/>
       <c r="J41" s="2"/>
       <c r="K41" s="1"/>
@@ -3910,21 +4817,6 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="1">
-        <v>70.290000000000006</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1">
-        <v>72.459999999999994</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1">
-        <v>68.010000000000005</v>
-      </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1">
-        <v>64.84</v>
-      </c>
       <c r="I42" s="1"/>
       <c r="J42" s="2"/>
       <c r="K42" s="1"/>
@@ -3933,21 +4825,6 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="1">
-        <v>70.209999999999994</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1">
-        <v>72.38</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1">
-        <v>67.989999999999995</v>
-      </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1">
-        <v>64.69</v>
-      </c>
       <c r="I43" s="1"/>
       <c r="J43" s="2"/>
       <c r="K43" s="1"/>
@@ -3956,21 +4833,6 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="1">
-        <v>69.680000000000007</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1">
-        <v>72.260000000000005</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1">
-        <v>67.989999999999995</v>
-      </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1">
-        <v>64.63</v>
-      </c>
       <c r="I44" s="1"/>
       <c r="J44" s="2"/>
       <c r="K44" s="1"/>
@@ -3979,21 +4841,6 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="1">
-        <v>69.62</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1">
-        <v>72.2</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1">
-        <v>67.94</v>
-      </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1">
-        <v>64.58</v>
-      </c>
       <c r="I45" s="1"/>
       <c r="J45" s="2"/>
       <c r="K45" s="1"/>
@@ -4002,21 +4849,6 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
-      <c r="B46" s="1">
-        <v>69.59</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1">
-        <v>72.09</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="1">
-        <v>67.89</v>
-      </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1">
-        <v>64.58</v>
-      </c>
       <c r="I46" s="1"/>
       <c r="J46" s="2"/>
       <c r="K46" s="1"/>
@@ -4025,21 +4857,6 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="1">
-        <v>69.47</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1">
-        <v>72.06</v>
-      </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1">
-        <v>67.55</v>
-      </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1">
-        <v>64.53</v>
-      </c>
       <c r="I47" s="1"/>
       <c r="J47" s="2"/>
       <c r="K47" s="1"/>
@@ -4048,21 +4865,6 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="1">
-        <v>69.459999999999994</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1">
-        <v>72.02</v>
-      </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1">
-        <v>67.37</v>
-      </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1">
-        <v>64.52</v>
-      </c>
       <c r="I48" s="1"/>
       <c r="J48" s="2"/>
       <c r="K48" s="1"/>
@@ -4071,21 +4873,6 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="1">
-        <v>69.41</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1">
-        <v>71.849999999999994</v>
-      </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1">
-        <v>67.37</v>
-      </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1">
-        <v>64.48</v>
-      </c>
       <c r="I49" s="1"/>
       <c r="J49" s="2"/>
       <c r="K49" s="1"/>
@@ -4094,21 +4881,6 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-      <c r="B50" s="1">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1">
-        <v>71.83</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="1">
-        <v>67.36</v>
-      </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1">
-        <v>64.44</v>
-      </c>
       <c r="I50" s="1"/>
       <c r="J50" s="2"/>
       <c r="K50" s="1"/>
@@ -4117,21 +4889,6 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="1">
-        <v>69.12</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1">
-        <v>71.77</v>
-      </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1">
-        <v>67.28</v>
-      </c>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1">
-        <v>64.41</v>
-      </c>
       <c r="I51" s="1"/>
       <c r="J51" s="2"/>
       <c r="K51" s="1"/>
@@ -4140,21 +4897,6 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="1">
-        <v>69.03</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1">
-        <v>71.61</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1">
-        <v>67.23</v>
-      </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1">
-        <v>64.36</v>
-      </c>
       <c r="I52" s="1"/>
       <c r="J52" s="2"/>
       <c r="K52" s="1"/>
@@ -4163,21 +4905,6 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="1">
-        <v>68.95</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1">
-        <v>71.61</v>
-      </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1">
-        <v>67.22</v>
-      </c>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1">
-        <v>64.239999999999995</v>
-      </c>
       <c r="I53" s="1"/>
       <c r="J53" s="2"/>
       <c r="K53" s="1"/>
@@ -4186,21 +4913,6 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="1">
-        <v>68.930000000000007</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1">
-        <v>71.569999999999993</v>
-      </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="1">
-        <v>67.14</v>
-      </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1">
-        <v>64.14</v>
-      </c>
       <c r="I54" s="1"/>
       <c r="J54" s="2"/>
       <c r="K54" s="1"/>
@@ -4209,21 +4921,6 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="1">
-        <v>68.83</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1">
-        <v>71.569999999999993</v>
-      </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="1">
-        <v>66.95</v>
-      </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1">
-        <v>63.86</v>
-      </c>
       <c r="I55" s="1"/>
       <c r="J55" s="2"/>
       <c r="K55" s="1"/>
@@ -4232,21 +4929,6 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
-      <c r="B56" s="1">
-        <v>68.66</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1">
-        <v>71.48</v>
-      </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1">
-        <v>66.89</v>
-      </c>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1">
-        <v>63.74</v>
-      </c>
       <c r="I56" s="1"/>
       <c r="J56" s="2"/>
       <c r="K56" s="1"/>
@@ -4255,21 +4937,6 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-      <c r="B57" s="1">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1">
-        <v>71.459999999999994</v>
-      </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="1">
-        <v>66.89</v>
-      </c>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1">
-        <v>63.74</v>
-      </c>
       <c r="I57" s="1"/>
       <c r="J57" s="2"/>
       <c r="K57" s="1"/>
@@ -4278,21 +4945,6 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
-      <c r="B58" s="1">
-        <v>68.349999999999994</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1">
-        <v>71.44</v>
-      </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1">
-        <v>66.87</v>
-      </c>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1">
-        <v>63.69</v>
-      </c>
       <c r="I58" s="1"/>
       <c r="J58" s="2"/>
       <c r="K58" s="1"/>
@@ -4301,21 +4953,6 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
-      <c r="B59" s="1">
-        <v>68.3</v>
-      </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1">
-        <v>66.84</v>
-      </c>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1">
-        <v>63.6</v>
-      </c>
       <c r="I59" s="1"/>
       <c r="J59" s="2"/>
       <c r="K59" s="1"/>
@@ -4324,21 +4961,6 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="1">
-        <v>68.23</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1">
-        <v>71.28</v>
-      </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1">
-        <v>66.709999999999994</v>
-      </c>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1">
-        <v>63.28</v>
-      </c>
       <c r="I60" s="1"/>
       <c r="J60" s="2"/>
       <c r="K60" s="1"/>
@@ -4347,21 +4969,6 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="1">
-        <v>68.14</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1">
-        <v>71.22</v>
-      </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1">
-        <v>66.48</v>
-      </c>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1">
-        <v>63.24</v>
-      </c>
       <c r="I61" s="1"/>
       <c r="J61" s="2"/>
       <c r="K61" s="1"/>
@@ -4370,21 +4977,6 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="1">
-        <v>68.11</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1">
-        <v>71.09</v>
-      </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1">
-        <v>66.47</v>
-      </c>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1">
-        <v>63.18</v>
-      </c>
       <c r="I62" s="1"/>
       <c r="J62" s="2"/>
       <c r="K62" s="1"/>
@@ -4393,21 +4985,6 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
-      <c r="B63" s="1">
-        <v>68.099999999999994</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1">
-        <v>71.05</v>
-      </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="1">
-        <v>66.459999999999994</v>
-      </c>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1">
-        <v>63.11</v>
-      </c>
       <c r="I63" s="1"/>
       <c r="J63" s="2"/>
       <c r="K63" s="1"/>
@@ -4416,21 +4993,6 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
-      <c r="B64" s="1">
-        <v>68.06</v>
-      </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1">
-        <v>71</v>
-      </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1">
-        <v>66.33</v>
-      </c>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1">
-        <v>62.95</v>
-      </c>
       <c r="I64" s="1"/>
       <c r="J64" s="2"/>
       <c r="K64" s="1"/>
@@ -4439,21 +5001,6 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
-      <c r="B65" s="1">
-        <v>67.930000000000007</v>
-      </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1">
-        <v>70.94</v>
-      </c>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1">
-        <v>66.28</v>
-      </c>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1">
-        <v>62.84</v>
-      </c>
       <c r="I65" s="1"/>
       <c r="J65" s="2"/>
       <c r="K65" s="1"/>
@@ -4462,21 +5009,6 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
-      <c r="B66" s="1">
-        <v>67.91</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1">
-        <v>70.92</v>
-      </c>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1">
-        <v>66.02</v>
-      </c>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1">
-        <v>62.79</v>
-      </c>
       <c r="I66" s="1"/>
       <c r="J66" s="2"/>
       <c r="K66" s="1"/>
@@ -4485,21 +5017,6 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
-      <c r="B67" s="1">
-        <v>67.849999999999994</v>
-      </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1">
-        <v>65.989999999999995</v>
-      </c>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1">
-        <v>62.76</v>
-      </c>
       <c r="I67" s="1"/>
       <c r="J67" s="2"/>
       <c r="K67" s="1"/>
@@ -4508,21 +5025,6 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
-      <c r="B68" s="1">
-        <v>67.7</v>
-      </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1">
-        <v>70.88</v>
-      </c>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1">
-        <v>65.930000000000007</v>
-      </c>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1">
-        <v>62.75</v>
-      </c>
       <c r="I68" s="1"/>
       <c r="J68" s="2"/>
       <c r="K68" s="1"/>
@@ -4531,21 +5033,6 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-      <c r="B69" s="1">
-        <v>67.62</v>
-      </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1">
-        <v>70.72</v>
-      </c>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1">
-        <v>65.87</v>
-      </c>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1">
-        <v>62.74</v>
-      </c>
       <c r="I69" s="1"/>
       <c r="J69" s="2"/>
       <c r="K69" s="1"/>
@@ -4554,21 +5041,6 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
-      <c r="B70" s="1">
-        <v>67.61</v>
-      </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1">
-        <v>70.66</v>
-      </c>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1">
-        <v>65.69</v>
-      </c>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1">
-        <v>62.68</v>
-      </c>
       <c r="I70" s="1"/>
       <c r="J70" s="2"/>
       <c r="K70" s="1"/>
@@ -4577,21 +5049,6 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
-      <c r="B71" s="1">
-        <v>67.569999999999993</v>
-      </c>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1">
-        <v>70.59</v>
-      </c>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1">
-        <v>65.64</v>
-      </c>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1">
-        <v>62.62</v>
-      </c>
       <c r="I71" s="1"/>
       <c r="J71" s="2"/>
       <c r="K71" s="1"/>
@@ -4600,21 +5057,6 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
-      <c r="B72" s="1">
-        <v>67.5</v>
-      </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1">
-        <v>70.45</v>
-      </c>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1">
-        <v>65.510000000000005</v>
-      </c>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1">
-        <v>62.61</v>
-      </c>
       <c r="I72" s="1"/>
       <c r="J72" s="2"/>
       <c r="K72" s="1"/>
@@ -4623,21 +5065,6 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="B73" s="1">
-        <v>67.38</v>
-      </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1">
-        <v>70.41</v>
-      </c>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1">
-        <v>65.45</v>
-      </c>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1">
-        <v>62.55</v>
-      </c>
       <c r="I73" s="1"/>
       <c r="J73" s="2"/>
       <c r="K73" s="1"/>
@@ -4646,21 +5073,6 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
-      <c r="B74" s="1">
-        <v>67.290000000000006</v>
-      </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1">
-        <v>70.36</v>
-      </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1">
-        <v>65.45</v>
-      </c>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1">
-        <v>62.52</v>
-      </c>
       <c r="I74" s="1"/>
       <c r="J74" s="2"/>
       <c r="K74" s="1"/>
@@ -4669,21 +5081,6 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
-      <c r="B75" s="1">
-        <v>67.290000000000006</v>
-      </c>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1">
-        <v>70.290000000000006</v>
-      </c>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1">
-        <v>65.38</v>
-      </c>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1">
-        <v>62.52</v>
-      </c>
       <c r="I75" s="1"/>
       <c r="J75" s="2"/>
       <c r="K75" s="1"/>
@@ -4692,21 +5089,6 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-      <c r="B76" s="1">
-        <v>67.260000000000005</v>
-      </c>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1">
-        <v>70.260000000000005</v>
-      </c>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1">
-        <v>65.239999999999995</v>
-      </c>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1">
-        <v>62.47</v>
-      </c>
       <c r="I76" s="1"/>
       <c r="J76" s="2"/>
       <c r="K76" s="1"/>
@@ -4715,21 +5097,6 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-      <c r="B77" s="1">
-        <v>67.260000000000005</v>
-      </c>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1">
-        <v>70.13</v>
-      </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="1">
-        <v>65.23</v>
-      </c>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1">
-        <v>62.27</v>
-      </c>
       <c r="I77" s="1"/>
       <c r="J77" s="2"/>
       <c r="K77" s="1"/>
@@ -4738,21 +5105,6 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="1">
-        <v>67.23</v>
-      </c>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1">
-        <v>70.09</v>
-      </c>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1">
-        <v>65.23</v>
-      </c>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1">
-        <v>62.2</v>
-      </c>
       <c r="I78" s="1"/>
       <c r="J78" s="2"/>
       <c r="K78" s="1"/>
@@ -4761,21 +5113,6 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
-      <c r="B79" s="1">
-        <v>67.069999999999993</v>
-      </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1">
-        <v>70.08</v>
-      </c>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1">
-        <v>65.17</v>
-      </c>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1">
-        <v>62.19</v>
-      </c>
       <c r="I79" s="1"/>
       <c r="J79" s="2"/>
       <c r="K79" s="1"/>
@@ -4784,21 +5121,6 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
-      <c r="B80" s="1">
-        <v>67.06</v>
-      </c>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1">
-        <v>70.069999999999993</v>
-      </c>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1">
-        <v>65.12</v>
-      </c>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1">
-        <v>62.05</v>
-      </c>
       <c r="I80" s="1"/>
       <c r="J80" s="2"/>
       <c r="K80" s="1"/>
@@ -4807,21 +5129,6 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
-      <c r="B81" s="1">
-        <v>66.95</v>
-      </c>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1">
-        <v>70.06</v>
-      </c>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1">
-        <v>65.069999999999993</v>
-      </c>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1">
-        <v>62.02</v>
-      </c>
       <c r="I81" s="1"/>
       <c r="J81" s="2"/>
       <c r="K81" s="1"/>
@@ -4830,21 +5137,6 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="B82" s="1">
-        <v>66.92</v>
-      </c>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1">
-        <v>70.010000000000005</v>
-      </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="1">
-        <v>64.91</v>
-      </c>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1">
-        <v>62</v>
-      </c>
       <c r="I82" s="1"/>
       <c r="J82" s="2"/>
       <c r="K82" s="1"/>
@@ -4853,21 +5145,6 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="1">
-        <v>66.84</v>
-      </c>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1">
-        <v>69.97</v>
-      </c>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1">
-        <v>64.790000000000006</v>
-      </c>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1">
-        <v>61.94</v>
-      </c>
       <c r="I83" s="1"/>
       <c r="J83" s="2"/>
       <c r="K83" s="1"/>
@@ -4876,21 +5153,6 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="B84" s="1">
-        <v>66.83</v>
-      </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1">
-        <v>69.87</v>
-      </c>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1">
-        <v>64.75</v>
-      </c>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1">
-        <v>61.75</v>
-      </c>
       <c r="I84" s="1"/>
       <c r="J84" s="2"/>
       <c r="K84" s="1"/>
@@ -4899,21 +5161,6 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-      <c r="B85" s="1">
-        <v>66.83</v>
-      </c>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1">
-        <v>69.83</v>
-      </c>
-      <c r="E85" s="3"/>
-      <c r="F85" s="1">
-        <v>64.739999999999995</v>
-      </c>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1">
-        <v>61.73</v>
-      </c>
       <c r="I85" s="1"/>
       <c r="J85" s="2"/>
       <c r="K85" s="1"/>
@@ -4922,21 +5169,6 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
-      <c r="B86" s="1">
-        <v>66.75</v>
-      </c>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1">
-        <v>69.77</v>
-      </c>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1">
-        <v>64.739999999999995</v>
-      </c>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1">
-        <v>61.69</v>
-      </c>
       <c r="I86" s="1"/>
       <c r="J86" s="2"/>
       <c r="K86" s="1"/>
@@ -4945,21 +5177,6 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
-      <c r="B87" s="1">
-        <v>66.709999999999994</v>
-      </c>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1">
-        <v>69.75</v>
-      </c>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1">
-        <v>64.58</v>
-      </c>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1">
-        <v>61.6</v>
-      </c>
       <c r="I87" s="1"/>
       <c r="J87" s="2"/>
       <c r="K87" s="1"/>
@@ -4968,21 +5185,6 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
-      <c r="B88" s="1">
-        <v>66.58</v>
-      </c>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1">
-        <v>69.709999999999994</v>
-      </c>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1">
-        <v>64.52</v>
-      </c>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1">
-        <v>61.43</v>
-      </c>
       <c r="I88" s="1"/>
       <c r="J88" s="2"/>
       <c r="K88" s="1"/>
@@ -4991,21 +5193,6 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
-      <c r="B89" s="1">
-        <v>66.55</v>
-      </c>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1">
-        <v>69.66</v>
-      </c>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1">
-        <v>64.31</v>
-      </c>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1">
-        <v>61.33</v>
-      </c>
       <c r="I89" s="1"/>
       <c r="J89" s="2"/>
       <c r="K89" s="1"/>
@@ -5014,21 +5201,6 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
-      <c r="B90" s="1">
-        <v>66.52</v>
-      </c>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1">
-        <v>69.63</v>
-      </c>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1">
-        <v>64.28</v>
-      </c>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1">
-        <v>61.3</v>
-      </c>
       <c r="I90" s="1"/>
       <c r="J90" s="2"/>
       <c r="K90" s="1"/>
@@ -5037,21 +5209,6 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
-      <c r="B91" s="1">
-        <v>66.459999999999994</v>
-      </c>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1">
-        <v>69.61</v>
-      </c>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1">
-        <v>64.27</v>
-      </c>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1">
-        <v>61.24</v>
-      </c>
       <c r="I91" s="1"/>
       <c r="J91" s="2"/>
       <c r="K91" s="1"/>
@@ -5060,21 +5217,6 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
-      <c r="B92" s="1">
-        <v>66.42</v>
-      </c>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1">
-        <v>69.56</v>
-      </c>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1">
-        <v>64.2</v>
-      </c>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1">
-        <v>61.22</v>
-      </c>
       <c r="I92" s="1"/>
       <c r="J92" s="2"/>
       <c r="K92" s="1"/>
@@ -5083,21 +5225,6 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
-      <c r="B93" s="1">
-        <v>66.319999999999993</v>
-      </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1">
-        <v>69.540000000000006</v>
-      </c>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1">
-        <v>64.19</v>
-      </c>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1">
-        <v>61.17</v>
-      </c>
       <c r="I93" s="1"/>
       <c r="J93" s="2"/>
       <c r="K93" s="1"/>
@@ -5106,21 +5233,6 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
-      <c r="B94" s="1">
-        <v>66.31</v>
-      </c>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1">
-        <v>69.459999999999994</v>
-      </c>
-      <c r="E94" s="3"/>
-      <c r="F94" s="1">
-        <v>64.19</v>
-      </c>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1">
-        <v>60.95</v>
-      </c>
       <c r="I94" s="1"/>
       <c r="J94" s="2"/>
       <c r="K94" s="1"/>
@@ -5129,21 +5241,6 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
-      <c r="B95" s="1">
-        <v>66.239999999999995</v>
-      </c>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1">
-        <v>69.42</v>
-      </c>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1">
-        <v>64.17</v>
-      </c>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1">
-        <v>60.8</v>
-      </c>
       <c r="I95" s="1"/>
       <c r="J95" s="2"/>
       <c r="K95" s="1"/>
@@ -5152,21 +5249,6 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
-      <c r="B96" s="1">
-        <v>66.22</v>
-      </c>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1">
-        <v>69.41</v>
-      </c>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1">
-        <v>64.12</v>
-      </c>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1">
-        <v>60.76</v>
-      </c>
       <c r="I96" s="1"/>
       <c r="J96" s="2"/>
       <c r="K96" s="1"/>
@@ -5175,21 +5257,6 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
-      <c r="B97" s="1">
-        <v>66.06</v>
-      </c>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1">
-        <v>69.260000000000005</v>
-      </c>
-      <c r="E97" s="3"/>
-      <c r="F97" s="1">
-        <v>64.069999999999993</v>
-      </c>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1">
-        <v>60.74</v>
-      </c>
       <c r="I97" s="1"/>
       <c r="J97" s="2"/>
       <c r="K97" s="1"/>
@@ -5198,21 +5265,6 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
-      <c r="B98" s="1">
-        <v>66.03</v>
-      </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1">
-        <v>69.25</v>
-      </c>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1">
-        <v>64.040000000000006</v>
-      </c>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1">
-        <v>60.65</v>
-      </c>
       <c r="I98" s="1"/>
       <c r="J98" s="2"/>
       <c r="K98" s="1"/>
@@ -5221,21 +5273,6 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
-      <c r="B99" s="1">
-        <v>65.88</v>
-      </c>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1">
-        <v>69.23</v>
-      </c>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1">
-        <v>63.98</v>
-      </c>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1">
-        <v>60.63</v>
-      </c>
       <c r="I99" s="1"/>
       <c r="J99" s="2"/>
       <c r="K99" s="1"/>
@@ -5244,21 +5281,6 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
-      <c r="B100" s="1">
-        <v>65.709999999999994</v>
-      </c>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1">
-        <v>69.209999999999994</v>
-      </c>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1">
-        <v>63.98</v>
-      </c>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1">
-        <v>60.62</v>
-      </c>
       <c r="I100" s="1"/>
       <c r="J100" s="2"/>
       <c r="K100" s="1"/>
@@ -5267,21 +5289,6 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
-      <c r="B101" s="1">
-        <v>65.56</v>
-      </c>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1">
-        <v>69.19</v>
-      </c>
-      <c r="E101" s="3"/>
-      <c r="F101" s="1">
-        <v>63.85</v>
-      </c>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1">
-        <v>60.58</v>
-      </c>
       <c r="I101" s="1"/>
       <c r="J101" s="2"/>
       <c r="K101" s="1"/>
@@ -5290,21 +5297,6 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
-      <c r="B102" s="1">
-        <v>65.489999999999995</v>
-      </c>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1">
-        <v>69.010000000000005</v>
-      </c>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1">
-        <v>63.75</v>
-      </c>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1">
-        <v>60.42</v>
-      </c>
       <c r="I102" s="1"/>
       <c r="J102" s="2"/>
       <c r="K102" s="1"/>
@@ -5313,21 +5305,6 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
-      <c r="B103" s="1">
-        <v>65.3</v>
-      </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1">
-        <v>68.88</v>
-      </c>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1">
-        <v>63.72</v>
-      </c>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1">
-        <v>60.34</v>
-      </c>
       <c r="I103" s="1"/>
       <c r="J103" s="2"/>
       <c r="K103" s="1"/>
@@ -5336,21 +5313,6 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
-      <c r="B104" s="1">
-        <v>65</v>
-      </c>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1">
-        <v>68.849999999999994</v>
-      </c>
-      <c r="E104" s="3"/>
-      <c r="F104" s="1">
-        <v>63.69</v>
-      </c>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1">
-        <v>60.34</v>
-      </c>
       <c r="I104" s="1"/>
       <c r="J104" s="2"/>
       <c r="K104" s="1"/>
@@ -5359,21 +5321,6 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
-      <c r="B105" s="1">
-        <v>64.989999999999995</v>
-      </c>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1">
-        <v>68.78</v>
-      </c>
-      <c r="E105" s="3"/>
-      <c r="F105" s="1">
-        <v>63.47</v>
-      </c>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1">
-        <v>60.31</v>
-      </c>
       <c r="I105" s="1"/>
       <c r="J105" s="2"/>
       <c r="K105" s="1"/>
@@ -5382,21 +5329,6 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
-      <c r="B106" s="1">
-        <v>64.97</v>
-      </c>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1">
-        <v>68.680000000000007</v>
-      </c>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1">
-        <v>63.4</v>
-      </c>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1">
-        <v>60.26</v>
-      </c>
       <c r="I106" s="1"/>
       <c r="J106" s="2"/>
       <c r="K106" s="1"/>
@@ -5405,21 +5337,6 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
-      <c r="B107" s="1">
-        <v>64.97</v>
-      </c>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1">
-        <v>68.67</v>
-      </c>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1">
-        <v>63.4</v>
-      </c>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1">
-        <v>60.2</v>
-      </c>
       <c r="I107" s="1"/>
       <c r="J107" s="2"/>
       <c r="K107" s="1"/>
@@ -8994,7 +8911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF93868-BBD7-4EE0-95E3-B568F75CE370}">
   <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="H8" sqref="H8:H107"/>
     </sheetView>
   </sheetViews>
